--- a/document/T3Q_1팀_간트차트.xlsx
+++ b/document/T3Q_1팀_간트차트.xlsx
@@ -5,11 +5,11 @@
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\minsoo-s\workspace\T3Q_projects_team_1\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="25350" windowHeight="11240" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="17710" windowHeight="6300" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Gantt Chart Template" sheetId="1" r:id="rId4"/>
@@ -21,263 +21,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="91">
   <x:si>
-    <x:t>TEAM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>라벨링 데이터 바운딩 박스 좌표 변환( COCO→YOLO )</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지자체 - 보수 필요 위험문 API를 이용한 위치정보 전송</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다중 객체 인지 모델 학습 (AI HUB : 각종 위험물)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>임재원,김지윤</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프로젝트 주제 선정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TASK OWNER</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TASK TITLE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DUE
-DATE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WBS NUMBER</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프로젝트 업무 분담</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DURATION</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프로젝트 계획서 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>START DATE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데이터 정의서 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>라벨링 툴 정의서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자체 촬영 영상</x:t>
-  </x:si>
-  <x:si>
-    <x:t>발표 자료 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프로젝트 보고서 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이미지 용량 축소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데이터  전처리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자- 위험 경보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>발표 및 멘토링일정</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>박병준</x:t>
-    </x:r>
-    <x:r>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-          <x:rPr hs:extension="1">
-            <x:rFont val="Corbel"/>
-            <x:sz val="9"/>
-            <x:color rgb="ff000000"/>
-            <hs:size val="100"/>
-            <hs:ratio val="100"/>
-            <hs:spacing val="0"/>
-            <hs:offset val="0"/>
-          </x:rPr>
-        </mc:Choice>
-        <mc:Fallback>
-          <x:rPr>
-            <x:rFont val="Corbel"/>
-            <x:sz val="9"/>
-            <x:color rgb="ff000000"/>
-          </x:rPr>
-        </mc:Fallback>
-      </mc:AlternateContent>
-      <x:t xml:space="preserve">, </x:t>
-    </x:r>
-    <x:r>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-          <x:rPr hs:extension="1">
-            <x:rFont val="맑은 고딕"/>
-            <x:sz val="9"/>
-            <x:color rgb="ff000000"/>
-            <hs:size val="100"/>
-            <hs:ratio val="100"/>
-            <hs:spacing val="0"/>
-            <hs:offset val="0"/>
-          </x:rPr>
-        </mc:Choice>
-        <mc:Fallback>
-          <x:rPr>
-            <x:rFont val="맑은 고딕"/>
-            <x:sz val="9"/>
-            <x:color rgb="ff000000"/>
-          </x:rPr>
-        </mc:Fallback>
-      </mc:AlternateContent>
-      <x:t>김지윤</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">사용할 데이터 카테고리 선정 및 세부 사항 설정  </x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>임재원</x:t>
-    </x:r>
-    <x:r>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-          <x:rPr hs:extension="1">
-            <x:rFont val="Corbel"/>
-            <x:sz val="9"/>
-            <x:color rgb="ff000000"/>
-            <hs:size val="100"/>
-            <hs:ratio val="100"/>
-            <hs:spacing val="0"/>
-            <hs:offset val="0"/>
-          </x:rPr>
-        </mc:Choice>
-        <mc:Fallback>
-          <x:rPr>
-            <x:rFont val="Corbel"/>
-            <x:sz val="9"/>
-            <x:color rgb="ff000000"/>
-          </x:rPr>
-        </mc:Fallback>
-      </mc:AlternateContent>
-      <x:t>,</x:t>
-    </x:r>
-    <x:r>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-          <x:rPr hs:extension="1">
-            <x:rFont val="맑은 고딕"/>
-            <x:sz val="9"/>
-            <x:color rgb="ff000000"/>
-            <hs:size val="100"/>
-            <hs:ratio val="100"/>
-            <hs:spacing val="0"/>
-            <hs:offset val="0"/>
-          </x:rPr>
-        </mc:Choice>
-        <mc:Fallback>
-          <x:rPr>
-            <x:rFont val="맑은 고딕"/>
-            <x:sz val="9"/>
-            <x:color rgb="ff000000"/>
-          </x:rPr>
-        </mc:Fallback>
-      </mc:AlternateContent>
-      <x:t>신민수</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>박병준</x:t>
-    </x:r>
-    <x:r>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-          <x:rPr hs:extension="1">
-            <x:rFont val="Corbel"/>
-            <x:sz val="9"/>
-            <x:color rgb="ff000000"/>
-            <hs:size val="100"/>
-            <hs:ratio val="100"/>
-            <hs:spacing val="0"/>
-            <hs:offset val="0"/>
-          </x:rPr>
-        </mc:Choice>
-        <mc:Fallback>
-          <x:rPr>
-            <x:rFont val="Corbel"/>
-            <x:sz val="9"/>
-            <x:color rgb="ff000000"/>
-          </x:rPr>
-        </mc:Fallback>
-      </mc:AlternateContent>
-      <x:t>,</x:t>
-    </x:r>
-    <x:r>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-          <x:rPr hs:extension="1">
-            <x:rFont val="맑은 고딕"/>
-            <x:sz val="9"/>
-            <x:color rgb="ff000000"/>
-            <hs:size val="100"/>
-            <hs:ratio val="100"/>
-            <hs:spacing val="0"/>
-            <hs:offset val="0"/>
-          </x:rPr>
-        </mc:Choice>
-        <mc:Fallback>
-          <x:rPr>
-            <x:rFont val="맑은 고딕"/>
-            <x:sz val="9"/>
-            <x:color rgb="ff000000"/>
-          </x:rPr>
-        </mc:Fallback>
-      </mc:AlternateContent>
-      <x:t>김지윤</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>추가 필요 기술 활용(크롤링,워드클라우드,태블로)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://goo.gl/PXLbMe</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GANTT CHART TEMPLATE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PCT OF TASK COMPLETE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(추후 결정) 데이터베이스 사용 여부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공공데이터 분석 기반 발표 자료 제작</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지자체 - 보수 필요 위험물 현장 이미지 전송</x:t>
-  </x:si>
-  <x:si>
-    <x:t>실시간 동작 기능 구현( 디텍딩, 분류, 저장 )</x:t>
+    <x:t>PROJECT TITLE</x:t>
   </x:si>
   <x:si>
     <x:t>프로젝트 단위 기술서 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개발 환경 정의서 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PROJECT TITLE</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">객체 인식 조건 설정 </x:t>
@@ -289,187 +36,10 @@
     <x:t>최종 테스트 및 모델 개선</x:t>
   </x:si>
   <x:si>
-    <x:t>yolov5 오분류율 개선</x:t>
+    <x:t>개발 환경 정의서 작성</x:t>
   </x:si>
   <x:si>
-    <x:t>모델 실시간 연동 기능 개선</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최종 보고서용 자료 정리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>세부 서비스 기능 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최종 프로젝트 보고서 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(추후 결정) 웹 구현 여부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주제 선정 및 프로젝트 범위 설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DATE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WEEK 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>요구사항정의서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>임재원,박병준</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WEEK 5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상세기능설명서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>신민수,김지윤</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WEEK 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>교수님 멘토링</x:t>
-  </x:si>
-  <x:si>
-    <x:t>박병준,김지윤</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WEEK 7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>임재원,신민수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>T3Q 멘토링</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데이터 수집</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WEEK 6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WEEK 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WEEK 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모델  학습</x:t>
-  </x:si>
-  <x:si>
-    <x:t>신민수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김지윤</x:t>
-  </x:si>
-  <x:si>
-    <x:t>임재원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>발표</x:t>
-  </x:si>
-  <x:si>
-    <x:t>박병준</x:t>
-  </x:si>
-  <x:si>
-    <x:t>라벨링</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 2022.10.26~2022.12.13</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t xml:space="preserve">YOLOv5 train.py </x:t>
-    </x:r>
-    <x:r>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-          <x:rPr hs:extension="1">
-            <x:rFont val="맑은 고딕"/>
-            <x:sz val="9"/>
-            <x:color rgb="ff000000"/>
-            <hs:size val="100"/>
-            <hs:ratio val="100"/>
-            <hs:spacing val="0"/>
-            <hs:offset val="0"/>
-          </x:rPr>
-        </mc:Choice>
-        <mc:Fallback>
-          <x:rPr>
-            <x:rFont val="맑은 고딕"/>
-            <x:sz val="9"/>
-            <x:color rgb="ff000000"/>
-          </x:rPr>
-        </mc:Fallback>
-      </mc:AlternateContent>
-      <x:t>코드 공부</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t xml:space="preserve"> T3Q_1</x:t>
-    </x:r>
-    <x:r>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-          <x:rPr hs:extension="1">
-            <x:rFont val="맑은 고딕"/>
-            <x:sz val="9"/>
-            <x:color rgb="ff000000"/>
-            <hs:size val="100"/>
-            <hs:ratio val="100"/>
-            <hs:spacing val="0"/>
-            <hs:offset val="0"/>
-          </x:rPr>
-        </mc:Choice>
-        <mc:Fallback>
-          <x:rPr>
-            <x:rFont val="맑은 고딕"/>
-            <x:sz val="9"/>
-            <x:color rgb="ff000000"/>
-          </x:rPr>
-        </mc:Fallback>
-      </mc:AlternateContent>
-      <x:t>팀</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>협업 템플릿 제작</x:t>
-    </x:r>
-    <x:r>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-          <x:rPr hs:extension="1">
-            <x:rFont val="맑은 고딕"/>
-            <x:sz val="9"/>
-            <x:color rgb="ff000000"/>
-            <hs:size val="100"/>
-            <hs:ratio val="100"/>
-            <hs:spacing val="0"/>
-            <hs:offset val="0"/>
-          </x:rPr>
-        </mc:Choice>
-        <mc:Fallback>
-          <x:rPr>
-            <x:rFont val="맑은 고딕"/>
-            <x:sz val="9"/>
-            <x:color rgb="ff000000"/>
-          </x:rPr>
-        </mc:Fallback>
-      </mc:AlternateContent>
-      <x:t>( Notion )</x:t>
-    </x:r>
+    <x:t xml:space="preserve">라벨링 데이터 타입 변환( json → txt ) </x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -557,7 +127,7 @@
   </x:si>
   <x:si>
     <x:r>
-      <x:t xml:space="preserve">YOLOv5 </x:t>
+      <x:t>협업 템플릿 제작</x:t>
     </x:r>
     <x:r>
       <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -580,8 +150,137 @@
           </x:rPr>
         </mc:Fallback>
       </mc:AlternateContent>
-      <x:t>가상 환경 구축</x:t>
+      <x:t>( Notion )</x:t>
     </x:r>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 임재원 / 신민수,박병준,김지윤</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주제 선정 및 프로젝트 범위 설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>추가 필요 기술 활용(크롤링,워드클라우드,태블로)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지자체 - 보수 필요 위험물 현장 이미지 전송</x:t>
+  </x:si>
+  <x:si>
+    <x:t>실시간 동작 기능 구현( 디텍딩, 분류, 저장 )</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PROJECT MANAGER / MEMBERS</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">YOLOv5 train.py </x:t>
+    </x:r>
+    <x:r>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+          <x:rPr hs:extension="1">
+            <x:rFont val="맑은 고딕"/>
+            <x:sz val="9"/>
+            <x:color rgb="ff000000"/>
+            <hs:size val="100"/>
+            <hs:ratio val="100"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:rPr>
+        </mc:Choice>
+        <mc:Fallback>
+          <x:rPr>
+            <x:rFont val="맑은 고딕"/>
+            <x:sz val="9"/>
+            <x:color rgb="ff000000"/>
+          </x:rPr>
+        </mc:Fallback>
+      </mc:AlternateContent>
+      <x:t>코드 공부</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>공공데이터 분석 기반 발표 자료 제작</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GANTT CHART TEMPLATE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PCT OF TASK COMPLETE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://goo.gl/PXLbMe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(추후 결정) 데이터베이스 사용 여부</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 2022.10.26~2022.12.13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단일 객체 인지 구현 ( Roboflow : pothole )</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>객체 인식 시</x:t>
+    </x:r>
+    <x:r>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+          <x:rPr hs:extension="1">
+            <x:rFont val="맑은 고딕"/>
+            <x:sz val="9"/>
+            <x:color rgb="ff000000"/>
+            <hs:size val="100"/>
+            <hs:ratio val="100"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:rPr>
+        </mc:Choice>
+        <mc:Fallback>
+          <x:rPr>
+            <x:rFont val="맑은 고딕"/>
+            <x:sz val="9"/>
+            <x:color rgb="ff000000"/>
+          </x:rPr>
+        </mc:Fallback>
+      </mc:AlternateContent>
+      <x:t>, 바운딩 박스 적용된 이미지 저장 기능 구현</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 실시간 객체인식을 통한 이륜차 위험물 감지 서비스</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">Roboflow </x:t>
+    </x:r>
+    <x:r>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+          <x:rPr hs:extension="1">
+            <x:rFont val="맑은 고딕"/>
+            <x:sz val="9"/>
+            <x:color rgb="ff000000"/>
+            <hs:size val="100"/>
+            <hs:ratio val="100"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:rPr>
+        </mc:Choice>
+        <mc:Fallback>
+          <x:rPr>
+            <x:rFont val="맑은 고딕"/>
+            <x:sz val="9"/>
+            <x:color rgb="ff000000"/>
+          </x:rPr>
+        </mc:Fallback>
+      </mc:AlternateContent>
+      <x:t>도로 위험물 데이터 수집(pothole)</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">사용할 데이터 카테고리 선정 및 세부 사항 설정  </x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -612,20 +311,8 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>플랫폼에서의 기능 구현 개선</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PROJECT MANAGER / MEMBERS</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 임재원 / 신민수,박병준,김지윤</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 실시간 객체인식을 통한 이륜차 위험물 감지 서비스</x:t>
-  </x:si>
-  <x:si>
     <x:r>
-      <x:t>객체 인식 시</x:t>
+      <x:t xml:space="preserve">YOLOv5 </x:t>
     </x:r>
     <x:r>
       <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -648,113 +335,63 @@
           </x:rPr>
         </mc:Fallback>
       </mc:AlternateContent>
-      <x:t xml:space="preserve">, </x:t>
-    </x:r>
-    <x:r>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-          <x:rPr hs:extension="1">
-            <x:rFont val="맑은 고딕"/>
-            <x:sz val="9"/>
-            <x:color rgb="ff000000"/>
-            <hs:size val="100"/>
-            <hs:ratio val="100"/>
-            <hs:spacing val="0"/>
-            <hs:offset val="0"/>
-          </x:rPr>
-        </mc:Choice>
-        <mc:Fallback>
-          <x:rPr>
-            <x:rFont val="맑은 고딕"/>
-            <x:sz val="9"/>
-            <x:color rgb="ff000000"/>
-          </x:rPr>
-        </mc:Fallback>
-      </mc:AlternateContent>
-      <x:t>바운딩 박스 적용된 이미지 저장 기능 구현</x:t>
+      <x:t>가상 환경 구축</x:t>
     </x:r>
   </x:si>
   <x:si>
-    <x:t>단일 객체 인지 구현 ( Roboflow : pothole )</x:t>
+    <x:t>라벨링 툴 정의서</x:t>
   </x:si>
   <x:si>
-    <x:r>
-      <x:t xml:space="preserve">Roboflow </x:t>
-    </x:r>
-    <x:r>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-          <x:rPr hs:extension="1">
-            <x:rFont val="맑은 고딕"/>
-            <x:sz val="9"/>
-            <x:color rgb="ff000000"/>
-            <hs:size val="100"/>
-            <hs:ratio val="100"/>
-            <hs:spacing val="0"/>
-            <hs:offset val="0"/>
-          </x:rPr>
-        </mc:Choice>
-        <mc:Fallback>
-          <x:rPr>
-            <x:rFont val="맑은 고딕"/>
-            <x:sz val="9"/>
-            <x:color rgb="ff000000"/>
-          </x:rPr>
-        </mc:Fallback>
-      </mc:AlternateContent>
-      <x:t>도로 위험물 데이터 수집</x:t>
-    </x:r>
-    <x:r>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-          <x:rPr hs:extension="1">
-            <x:rFont val="맑은 고딕"/>
-            <x:sz val="9"/>
-            <x:color rgb="ff000000"/>
-            <hs:size val="100"/>
-            <hs:ratio val="100"/>
-            <hs:spacing val="0"/>
-            <hs:offset val="0"/>
-          </x:rPr>
-        </mc:Choice>
-        <mc:Fallback>
-          <x:rPr>
-            <x:rFont val="맑은 고딕"/>
-            <x:sz val="9"/>
-            <x:color rgb="ff000000"/>
-          </x:rPr>
-        </mc:Fallback>
-      </mc:AlternateContent>
-      <x:t>(pothole)</x:t>
-    </x:r>
+    <x:t>프로젝트 보고서 작성</x:t>
   </x:si>
   <x:si>
-    <x:r>
-      <x:t>라벨링 데이터 타입 변환( json → txt )</x:t>
-    </x:r>
-    <x:r>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-          <x:rPr hs:extension="1">
-            <x:rFont val="맑은 고딕"/>
-            <x:sz val="9"/>
-            <x:color rgb="ff000000"/>
-            <hs:size val="100"/>
-            <hs:ratio val="100"/>
-            <hs:spacing val="0"/>
-            <hs:offset val="0"/>
-          </x:rPr>
-        </mc:Choice>
-        <mc:Fallback>
-          <x:rPr>
-            <x:rFont val="맑은 고딕"/>
-            <x:sz val="9"/>
-            <x:color rgb="ff000000"/>
-          </x:rPr>
-        </mc:Fallback>
-      </mc:AlternateContent>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
+    <x:t>TASK TITLE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프로젝트 계획서 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>START DATE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데이터 정의서 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자체 촬영 영상</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TASK OWNER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>발표 자료 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프로젝트 주제 선정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DURATION</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WBS NUMBER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프로젝트 업무 분담</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DUE
+DATE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데이터  전처리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자- 위험 경보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>발표 및 멘토링일정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이미지 용량 축소</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -783,6 +420,253 @@
       </mc:AlternateContent>
       <x:t>코드 공부</x:t>
     </x:r>
+  </x:si>
+  <x:si>
+    <x:t>김지윤</x:t>
+  </x:si>
+  <x:si>
+    <x:t>신민수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>임재원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>발표</x:t>
+  </x:si>
+  <x:si>
+    <x:t>박병준</x:t>
+  </x:si>
+  <x:si>
+    <x:t>라벨링</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>박병준</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Corbel"/>
+        <x:sz val="9"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>,</x:t>
+    </x:r>
+    <x:r>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+          <x:rPr hs:extension="1">
+            <x:rFont val="맑은 고딕"/>
+            <x:sz val="9"/>
+            <x:color rgb="ff000000"/>
+            <hs:size val="100"/>
+            <hs:ratio val="100"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:rPr>
+        </mc:Choice>
+        <mc:Fallback>
+          <x:rPr>
+            <x:rFont val="맑은 고딕"/>
+            <x:sz val="9"/>
+            <x:color rgb="ff000000"/>
+          </x:rPr>
+        </mc:Fallback>
+      </mc:AlternateContent>
+      <x:t>김지윤</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>임재원</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Corbel"/>
+        <x:sz val="9"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>,</x:t>
+    </x:r>
+    <x:r>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+          <x:rPr hs:extension="1">
+            <x:rFont val="맑은 고딕"/>
+            <x:sz val="9"/>
+            <x:color rgb="ff000000"/>
+            <hs:size val="100"/>
+            <hs:ratio val="100"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:rPr>
+        </mc:Choice>
+        <mc:Fallback>
+          <x:rPr>
+            <x:rFont val="맑은 고딕"/>
+            <x:sz val="9"/>
+            <x:color rgb="ff000000"/>
+          </x:rPr>
+        </mc:Fallback>
+      </mc:AlternateContent>
+      <x:t>신민수</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve"> T3Q_1</x:t>
+    </x:r>
+    <x:r>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+          <x:rPr hs:extension="1">
+            <x:rFont val="맑은 고딕"/>
+            <x:sz val="9"/>
+            <x:color rgb="ff000000"/>
+            <hs:size val="100"/>
+            <hs:ratio val="100"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:rPr>
+        </mc:Choice>
+        <mc:Fallback>
+          <x:rPr>
+            <x:rFont val="맑은 고딕"/>
+            <x:sz val="9"/>
+            <x:color rgb="ff000000"/>
+          </x:rPr>
+        </mc:Fallback>
+      </mc:AlternateContent>
+      <x:t>팀</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>임재원,김지윤</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TEAM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DATE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WEEK 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>박병준,김지윤</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모델  학습</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WEEK 5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상세기능설명서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WEEK 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WEEK 6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WEEK 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WEEK 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>신민수,김지윤</x:t>
+  </x:si>
+  <x:si>
+    <x:t>임재원,신민수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>T3Q 멘토링</x:t>
+  </x:si>
+  <x:si>
+    <x:t>교수님 멘토링</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WEEK 7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>임재원,박병준</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데이터 수집</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요구사항정의서</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>박병준</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Corbel"/>
+        <x:sz val="9"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve">, </x:t>
+    </x:r>
+    <x:r>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+          <x:rPr hs:extension="1">
+            <x:rFont val="맑은 고딕"/>
+            <x:sz val="9"/>
+            <x:color rgb="ff000000"/>
+            <hs:size val="100"/>
+            <hs:ratio val="100"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:rPr>
+        </mc:Choice>
+        <mc:Fallback>
+          <x:rPr>
+            <x:rFont val="맑은 고딕"/>
+            <x:sz val="9"/>
+            <x:color rgb="ff000000"/>
+          </x:rPr>
+        </mc:Fallback>
+      </mc:AlternateContent>
+      <x:t>김지윤</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>(추후 결정) 웹 구현 여부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최종 보고서용 자료 정리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>세부 서비스 기능 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모델 실시간 연동 기능 개선</x:t>
+  </x:si>
+  <x:si>
+    <x:t>yolov5 오분류율 개선</x:t>
+  </x:si>
+  <x:si>
+    <x:t>플랫폼에서의 기능 구현 개선</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최종 프로젝트 보고서 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>라벨링 데이터 바운딩 박스 좌표 변환( COCO→YOLO )</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다중 객체 인지 모델 학습 (AI HUB : 각종 위험물)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지자체 - 보수 필요 위험문 API를 이용한 위치정보 전송</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -849,26 +733,11 @@
       <x:color rgb="ff000000"/>
       <x:b val="1"/>
     </x:font>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="Corbel"/>
-          <x:sz val="9"/>
-          <x:color rgb="ff000000"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="Corbel"/>
-          <x:sz val="9"/>
-          <x:color rgb="ff000000"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <x:font>
+      <x:name val="Corbel"/>
+      <x:sz val="9"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:font hs:extension="1">
@@ -886,6 +755,28 @@
           <x:name val="맑은 고딕"/>
           <x:sz val="9"/>
           <x:color rgb="ff000000"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="Corbel"/>
+          <x:sz val="9"/>
+          <x:color rgb="ffffffff"/>
+          <x:b val="1"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="Corbel"/>
+          <x:sz val="9"/>
+          <x:color rgb="ffffffff"/>
+          <x:b val="1"/>
         </x:font>
       </mc:Fallback>
     </mc:AlternateContent>
@@ -939,32 +830,6 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:font hs:extension="1">
-          <x:name val="Arial"/>
-          <x:sz val="9"/>
-          <x:color rgb="ff000000"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="Arial"/>
-          <x:sz val="9"/>
-          <x:color rgb="ff000000"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:font>
-      <x:name val="Corbel"/>
-      <x:sz val="9"/>
-      <x:color rgb="ffffffff"/>
-      <x:b val="1"/>
-    </x:font>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
           <x:name val="맑은 고딕"/>
           <x:sz val="9"/>
           <x:color rgb="ffffffff"/>
@@ -981,6 +846,26 @@
           <x:sz val="9"/>
           <x:color rgb="ffffffff"/>
           <x:b val="1"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="Arial"/>
+          <x:sz val="9"/>
+          <x:color rgb="ff000000"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="Arial"/>
+          <x:sz val="9"/>
+          <x:color rgb="ff000000"/>
         </x:font>
       </mc:Fallback>
     </mc:AlternateContent>
@@ -1066,14 +951,14 @@
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="ff4a86e8"/>
-        <x:bgColor rgb="ff3d85c6"/>
+        <x:fgColor rgb="ff525252"/>
+        <x:bgColor rgb="ff333333"/>
       </x:patternFill>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="ff525252"/>
-        <x:bgColor rgb="ff333333"/>
+        <x:fgColor rgb="ff4a86e8"/>
+        <x:bgColor rgb="ff3d85c6"/>
       </x:patternFill>
     </x:fill>
   </x:fills>
@@ -1178,6 +1063,20 @@
     </x:border>
     <x:border>
       <x:left style="thin">
+        <x:color rgb="ff999999"/>
+      </x:left>
+      <x:right>
+        <x:color auto="1"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="ff999999"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="ff999999"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
         <x:color rgb="ffbfbfbf"/>
       </x:left>
       <x:right style="thin">
@@ -1216,20 +1115,6 @@
       </x:top>
       <x:bottom style="double">
         <x:color rgb="ffbfbfbf"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color rgb="ff999999"/>
-      </x:left>
-      <x:right>
-        <x:color auto="1"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="ff999999"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="ff999999"/>
       </x:bottom>
     </x:border>
   </x:borders>
@@ -1619,36 +1504,62 @@
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="164" fontId="12" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="bottom"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="164" fontId="12" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="bottom"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
     <x:xf numFmtId="164" fontId="11" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
-    <x:xf numFmtId="164" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="164" fontId="15" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="164" fontId="15" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="164" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="164" fontId="9" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="bottom" wrapText="1"/>
+        <x:xf numFmtId="164" fontId="12" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="164" fontId="9" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="bottom" wrapText="1"/>
+        <x:xf numFmtId="164" fontId="12" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
@@ -1680,52 +1591,26 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="164" fontId="15" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="164" fontId="9" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="bottom" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="164" fontId="9" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="bottom" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="164" fontId="12" fillId="15" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="bottom"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="164" fontId="15" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="bottom"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="164" fontId="16" fillId="15" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="bottom"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="164" fontId="16" fillId="15" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="bottom"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="164" fontId="15" fillId="15" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="bottom"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="164" fontId="15" fillId="15" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="bottom"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="164" fontId="15" fillId="15" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="bottom"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="164" fontId="15" fillId="15" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="164" fontId="12" fillId="15" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="bottom"/>
         </x:xf>
       </mc:Fallback>
@@ -2065,8 +1950,8 @@
   </x:sheetPr>
   <x:dimension ref="A1:BQ150"/>
   <x:sheetViews>
-    <x:sheetView showGridLines="0" tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="G11" activeCellId="0" sqref="G11:G11"/>
+    <x:sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="AA7" activeCellId="0" sqref="AA7:AA7"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="12.60546875" defaultRowHeight="16.39999999999999857891"/>
@@ -2085,18 +1970,18 @@
     <x:row r="1" spans="1:43" ht="36" customHeight="1">
       <x:c r="A1" s="1"/>
       <x:c r="B1" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C1" s="2"/>
       <x:c r="D1" s="2"/>
-      <x:c r="E1" s="65"/>
-      <x:c r="F1" s="65"/>
-      <x:c r="G1" s="65"/>
-      <x:c r="H1" s="65"/>
-      <x:c r="I1" s="65"/>
-      <x:c r="J1" s="65"/>
-      <x:c r="K1" s="65"/>
-      <x:c r="L1" s="65"/>
+      <x:c r="E1" s="66"/>
+      <x:c r="F1" s="66"/>
+      <x:c r="G1" s="66"/>
+      <x:c r="H1" s="66"/>
+      <x:c r="I1" s="66"/>
+      <x:c r="J1" s="66"/>
+      <x:c r="K1" s="66"/>
+      <x:c r="L1" s="66"/>
       <x:c r="M1" s="1"/>
       <x:c r="N1" s="1"/>
       <x:c r="O1" s="1"/>
@@ -2114,17 +1999,17 @@
       <x:c r="AA1" s="1"/>
       <x:c r="AB1" s="1"/>
       <x:c r="AC1" s="1"/>
-      <x:c r="AD1" s="66" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="AE1" s="66"/>
-      <x:c r="AF1" s="66"/>
-      <x:c r="AG1" s="66"/>
-      <x:c r="AH1" s="66"/>
-      <x:c r="AI1" s="66"/>
-      <x:c r="AJ1" s="66"/>
-      <x:c r="AK1" s="66"/>
-      <x:c r="AL1" s="66"/>
+      <x:c r="AD1" s="67" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="AE1" s="67"/>
+      <x:c r="AF1" s="67"/>
+      <x:c r="AG1" s="67"/>
+      <x:c r="AH1" s="67"/>
+      <x:c r="AI1" s="67"/>
+      <x:c r="AJ1" s="67"/>
+      <x:c r="AK1" s="67"/>
+      <x:c r="AL1" s="67"/>
       <x:c r="AM1" s="1"/>
       <x:c r="AN1" s="1"/>
       <x:c r="AO1" s="1"/>
@@ -2179,50 +2064,50 @@
     <x:row r="3" spans="1:43" ht="15" customHeight="1">
       <x:c r="A3" s="1"/>
       <x:c r="B3" s="1"/>
-      <x:c r="C3" s="75" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="D3" s="67" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="E3" s="67"/>
-      <x:c r="F3" s="67"/>
-      <x:c r="G3" s="67"/>
-      <x:c r="H3" s="67"/>
-      <x:c r="I3" s="73" t="s">
+      <x:c r="C3" s="65" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J3" s="73"/>
-      <x:c r="K3" s="73"/>
-      <x:c r="L3" s="73"/>
-      <x:c r="M3" s="73"/>
-      <x:c r="N3" s="73"/>
-      <x:c r="O3" s="73"/>
-      <x:c r="P3" s="73"/>
-      <x:c r="Q3" s="73"/>
-      <x:c r="R3" s="68" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="S3" s="68"/>
-      <x:c r="T3" s="68"/>
-      <x:c r="U3" s="68"/>
-      <x:c r="V3" s="68"/>
-      <x:c r="W3" s="68"/>
-      <x:c r="X3" s="68"/>
-      <x:c r="Y3" s="68"/>
-      <x:c r="Z3" s="68"/>
-      <x:c r="AA3" s="68"/>
-      <x:c r="AB3" s="68"/>
-      <x:c r="AC3" s="68"/>
-      <x:c r="AD3" s="68"/>
-      <x:c r="AE3" s="68"/>
-      <x:c r="AF3" s="68"/>
-      <x:c r="AG3" s="68"/>
-      <x:c r="AH3" s="68"/>
-      <x:c r="AI3" s="68"/>
-      <x:c r="AJ3" s="68"/>
-      <x:c r="AK3" s="68"/>
-      <x:c r="AL3" s="68"/>
+      <x:c r="D3" s="68" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E3" s="68"/>
+      <x:c r="F3" s="68"/>
+      <x:c r="G3" s="68"/>
+      <x:c r="H3" s="68"/>
+      <x:c r="I3" s="69" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="J3" s="69"/>
+      <x:c r="K3" s="69"/>
+      <x:c r="L3" s="69"/>
+      <x:c r="M3" s="69"/>
+      <x:c r="N3" s="69"/>
+      <x:c r="O3" s="69"/>
+      <x:c r="P3" s="69"/>
+      <x:c r="Q3" s="69"/>
+      <x:c r="R3" s="70" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="S3" s="70"/>
+      <x:c r="T3" s="70"/>
+      <x:c r="U3" s="70"/>
+      <x:c r="V3" s="70"/>
+      <x:c r="W3" s="70"/>
+      <x:c r="X3" s="70"/>
+      <x:c r="Y3" s="70"/>
+      <x:c r="Z3" s="70"/>
+      <x:c r="AA3" s="70"/>
+      <x:c r="AB3" s="70"/>
+      <x:c r="AC3" s="70"/>
+      <x:c r="AD3" s="70"/>
+      <x:c r="AE3" s="70"/>
+      <x:c r="AF3" s="70"/>
+      <x:c r="AG3" s="70"/>
+      <x:c r="AH3" s="70"/>
+      <x:c r="AI3" s="70"/>
+      <x:c r="AJ3" s="70"/>
+      <x:c r="AK3" s="70"/>
+      <x:c r="AL3" s="70"/>
       <x:c r="AM3" s="1"/>
       <x:c r="AN3" s="1"/>
       <x:c r="AO3" s="1"/>
@@ -2232,50 +2117,50 @@
     <x:row r="4" spans="1:44" ht="15" customHeight="1">
       <x:c r="A4" s="1"/>
       <x:c r="B4" s="1"/>
-      <x:c r="C4" s="75" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="D4" s="67" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="E4" s="67"/>
-      <x:c r="F4" s="67"/>
-      <x:c r="G4" s="67"/>
-      <x:c r="H4" s="67"/>
-      <x:c r="I4" s="74" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="J4" s="74"/>
-      <x:c r="K4" s="74"/>
-      <x:c r="L4" s="74"/>
-      <x:c r="M4" s="74"/>
-      <x:c r="N4" s="74"/>
-      <x:c r="O4" s="74"/>
-      <x:c r="P4" s="74"/>
-      <x:c r="Q4" s="74"/>
-      <x:c r="R4" s="68" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="S4" s="68"/>
-      <x:c r="T4" s="68"/>
-      <x:c r="U4" s="68"/>
-      <x:c r="V4" s="68"/>
-      <x:c r="W4" s="68"/>
-      <x:c r="X4" s="68"/>
-      <x:c r="Y4" s="68"/>
-      <x:c r="Z4" s="68"/>
-      <x:c r="AA4" s="68"/>
-      <x:c r="AB4" s="68"/>
-      <x:c r="AC4" s="68"/>
-      <x:c r="AD4" s="68"/>
-      <x:c r="AE4" s="68"/>
-      <x:c r="AF4" s="68"/>
-      <x:c r="AG4" s="68"/>
-      <x:c r="AH4" s="68"/>
-      <x:c r="AI4" s="68"/>
-      <x:c r="AJ4" s="68"/>
-      <x:c r="AK4" s="68"/>
-      <x:c r="AL4" s="68"/>
+      <x:c r="C4" s="65" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D4" s="68" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E4" s="68"/>
+      <x:c r="F4" s="68"/>
+      <x:c r="G4" s="68"/>
+      <x:c r="H4" s="68"/>
+      <x:c r="I4" s="71" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="J4" s="71"/>
+      <x:c r="K4" s="71"/>
+      <x:c r="L4" s="71"/>
+      <x:c r="M4" s="71"/>
+      <x:c r="N4" s="71"/>
+      <x:c r="O4" s="71"/>
+      <x:c r="P4" s="71"/>
+      <x:c r="Q4" s="71"/>
+      <x:c r="R4" s="70" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="S4" s="70"/>
+      <x:c r="T4" s="70"/>
+      <x:c r="U4" s="70"/>
+      <x:c r="V4" s="70"/>
+      <x:c r="W4" s="70"/>
+      <x:c r="X4" s="70"/>
+      <x:c r="Y4" s="70"/>
+      <x:c r="Z4" s="70"/>
+      <x:c r="AA4" s="70"/>
+      <x:c r="AB4" s="70"/>
+      <x:c r="AC4" s="70"/>
+      <x:c r="AD4" s="70"/>
+      <x:c r="AE4" s="70"/>
+      <x:c r="AF4" s="70"/>
+      <x:c r="AG4" s="70"/>
+      <x:c r="AH4" s="70"/>
+      <x:c r="AI4" s="70"/>
+      <x:c r="AJ4" s="70"/>
+      <x:c r="AK4" s="70"/>
+      <x:c r="AL4" s="70"/>
       <x:c r="AM4" s="1"/>
       <x:c r="AN4" s="1"/>
       <x:c r="AO4" s="1"/>
@@ -2331,86 +2216,86 @@
     </x:row>
     <x:row r="6" spans="1:43" ht="15.75" customHeight="1">
       <x:c r="A6" s="1"/>
-      <x:c r="B6" s="69" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C6" s="70" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D6" s="70" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="E6" s="70" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="F6" s="70" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="G6" s="70" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="H6" s="71" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="I6" s="72" t="s">
+      <x:c r="B6" s="72" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C6" s="73" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D6" s="73" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="E6" s="73" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="F6" s="73" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="G6" s="73" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="H6" s="74" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="I6" s="75" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="J6" s="75"/>
+      <x:c r="K6" s="75"/>
+      <x:c r="L6" s="75"/>
+      <x:c r="M6" s="75"/>
+      <x:c r="N6" s="75" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="O6" s="75"/>
+      <x:c r="P6" s="75"/>
+      <x:c r="Q6" s="75"/>
+      <x:c r="R6" s="75"/>
+      <x:c r="S6" s="75" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="T6" s="75"/>
+      <x:c r="U6" s="75"/>
+      <x:c r="V6" s="75"/>
+      <x:c r="W6" s="75"/>
+      <x:c r="X6" s="75" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="J6" s="72"/>
-      <x:c r="K6" s="72"/>
-      <x:c r="L6" s="72"/>
-      <x:c r="M6" s="72"/>
-      <x:c r="N6" s="72" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="O6" s="72"/>
-      <x:c r="P6" s="72"/>
-      <x:c r="Q6" s="72"/>
-      <x:c r="R6" s="72"/>
-      <x:c r="S6" s="72" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="T6" s="72"/>
-      <x:c r="U6" s="72"/>
-      <x:c r="V6" s="72"/>
-      <x:c r="W6" s="72"/>
-      <x:c r="X6" s="72" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="Y6" s="72"/>
-      <x:c r="Z6" s="72"/>
-      <x:c r="AA6" s="72"/>
-      <x:c r="AB6" s="72"/>
-      <x:c r="AC6" s="72" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="AD6" s="72"/>
-      <x:c r="AE6" s="72"/>
-      <x:c r="AF6" s="72"/>
-      <x:c r="AG6" s="72"/>
-      <x:c r="AH6" s="72" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="AI6" s="72"/>
-      <x:c r="AJ6" s="72"/>
-      <x:c r="AK6" s="72"/>
-      <x:c r="AL6" s="72"/>
-      <x:c r="AM6" s="72" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="AN6" s="72"/>
-      <x:c r="AO6" s="72"/>
-      <x:c r="AP6" s="72"/>
-      <x:c r="AQ6" s="72"/>
+      <x:c r="Y6" s="75"/>
+      <x:c r="Z6" s="75"/>
+      <x:c r="AA6" s="75"/>
+      <x:c r="AB6" s="75"/>
+      <x:c r="AC6" s="75" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="AD6" s="75"/>
+      <x:c r="AE6" s="75"/>
+      <x:c r="AF6" s="75"/>
+      <x:c r="AG6" s="75"/>
+      <x:c r="AH6" s="75" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="AI6" s="75"/>
+      <x:c r="AJ6" s="75"/>
+      <x:c r="AK6" s="75"/>
+      <x:c r="AL6" s="75"/>
+      <x:c r="AM6" s="75" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="AN6" s="75"/>
+      <x:c r="AO6" s="75"/>
+      <x:c r="AP6" s="75"/>
+      <x:c r="AQ6" s="75"/>
     </x:row>
     <x:row r="7" spans="1:43" ht="15.75" customHeight="1">
       <x:c r="A7" s="1"/>
-      <x:c r="B7" s="69"/>
-      <x:c r="C7" s="70"/>
-      <x:c r="D7" s="70"/>
-      <x:c r="E7" s="70"/>
-      <x:c r="F7" s="70"/>
-      <x:c r="G7" s="70"/>
-      <x:c r="H7" s="71"/>
+      <x:c r="B7" s="72"/>
+      <x:c r="C7" s="73"/>
+      <x:c r="D7" s="73"/>
+      <x:c r="E7" s="73"/>
+      <x:c r="F7" s="73"/>
+      <x:c r="G7" s="73"/>
+      <x:c r="H7" s="74"/>
       <x:c r="I7" s="5">
         <x:v>26</x:v>
       </x:c>
@@ -2523,7 +2408,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C8" s="8" t="s">
-        <x:v>22</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D8" s="9"/>
       <x:c r="E8" s="10"/>
@@ -2572,10 +2457,10 @@
         <x:v>0.10000000000000001</x:v>
       </x:c>
       <x:c r="C9" s="45" t="s">
-        <x:v>70</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D9" s="56" t="s">
-        <x:v>67</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E9" s="57">
         <x:v>44860</x:v>
@@ -2630,10 +2515,10 @@
         <x:v>0.20000000000000001</x:v>
       </x:c>
       <x:c r="C10" s="45" t="s">
-        <x:v>60</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D10" s="56" t="s">
-        <x:v>67</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E10" s="57">
         <x:v>44860</x:v>
@@ -2688,10 +2573,10 @@
         <x:v>0.29999999999999999</x:v>
       </x:c>
       <x:c r="C11" s="45" t="s">
-        <x:v>56</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D11" s="56" t="s">
-        <x:v>67</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E11" s="57">
         <x:v>44860</x:v>
@@ -2746,10 +2631,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C12" s="8" t="s">
-        <x:v>47</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D12" s="9" t="s">
-        <x:v>67</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E12" s="10"/>
       <x:c r="F12" s="10"/>
@@ -2797,10 +2682,10 @@
         <x:v>1.1000000000000001</x:v>
       </x:c>
       <x:c r="C13" s="12" t="s">
-        <x:v>5</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D13" s="13" t="s">
-        <x:v>67</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E13" s="14">
         <x:v>44860</x:v>
@@ -2857,10 +2742,10 @@
         <x:v>1.2</x:v>
       </x:c>
       <x:c r="C14" s="12" t="s">
-        <x:v>12</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D14" s="13" t="s">
-        <x:v>67</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E14" s="14">
         <x:v>44865</x:v>
@@ -2917,10 +2802,10 @@
         <x:v>1.3</x:v>
       </x:c>
       <x:c r="C15" s="12" t="s">
-        <x:v>10</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="D15" s="13" t="s">
-        <x:v>67</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E15" s="14">
         <x:v>44869</x:v>
@@ -2977,10 +2862,10 @@
         <x:v>1.3999999999999999</x:v>
       </x:c>
       <x:c r="C16" s="12" t="s">
-        <x:v>76</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D16" s="13" t="s">
-        <x:v>66</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E16" s="14">
         <x:v>44869</x:v>
@@ -3037,7 +2922,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C17" s="8" t="s">
-        <x:v>35</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D17" s="9"/>
       <x:c r="E17" s="20"/>
@@ -3086,10 +2971,10 @@
         <x:v>2.1000000000000001</x:v>
       </x:c>
       <x:c r="C18" s="12" t="s">
-        <x:v>14</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D18" s="13" t="s">
-        <x:v>68</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E18" s="14">
         <x:v>44875</x:v>
@@ -3146,10 +3031,10 @@
         <x:v>2.2000000000000002</x:v>
       </x:c>
       <x:c r="C19" s="12" t="s">
-        <x:v>39</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D19" s="13" t="s">
-        <x:v>71</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E19" s="14">
         <x:v>44875</x:v>
@@ -3206,10 +3091,10 @@
         <x:v>2.2999999999999976</x:v>
       </x:c>
       <x:c r="C20" s="12" t="s">
-        <x:v>81</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D20" s="13" t="s">
-        <x:v>66</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E20" s="14">
         <x:v>44875</x:v>
@@ -3266,10 +3151,10 @@
         <x:v>2.3999999999999959</x:v>
       </x:c>
       <x:c r="C21" s="12" t="s">
-        <x:v>36</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D21" s="13" t="s">
-        <x:v>69</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E21" s="14">
         <x:v>44875</x:v>
@@ -3326,10 +3211,10 @@
         <x:v>2.4999999999999947</x:v>
       </x:c>
       <x:c r="C22" s="45" t="s">
-        <x:v>15</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D22" s="13" t="s">
-        <x:v>26</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E22" s="14">
         <x:v>44875</x:v>
@@ -3386,10 +3271,10 @@
         <x:v>2.599999999999993</x:v>
       </x:c>
       <x:c r="C23" s="45" t="s">
-        <x:v>32</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D23" s="13" t="s">
-        <x:v>23</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E23" s="14">
         <x:v>44874</x:v>
@@ -3446,10 +3331,10 @@
         <x:v>2.6999999999999913</x:v>
       </x:c>
       <x:c r="C24" s="12" t="s">
-        <x:v>53</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D24" s="13" t="s">
-        <x:v>59</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="14">
         <x:v>44886</x:v>
@@ -3506,10 +3391,10 @@
         <x:v>2.7999999999999896</x:v>
       </x:c>
       <x:c r="C25" s="12" t="s">
-        <x:v>50</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D25" s="13" t="s">
-        <x:v>59</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E25" s="14">
         <x:v>44886</x:v>
@@ -3566,7 +3451,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C26" s="27" t="s">
-        <x:v>61</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D26" s="28"/>
       <x:c r="E26" s="29"/>
@@ -3615,10 +3500,10 @@
         <x:v>3.1000000000000001</x:v>
       </x:c>
       <x:c r="C27" s="12" t="s">
-        <x:v>77</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D27" s="13" t="s">
-        <x:v>67</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E27" s="14">
         <x:v>44872</x:v>
@@ -3675,10 +3560,10 @@
         <x:v>3.2000000000000046</x:v>
       </x:c>
       <x:c r="C28" s="12" t="s">
-        <x:v>88</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D28" s="13" t="s">
-        <x:v>67</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E28" s="14">
         <x:v>44872</x:v>
@@ -3735,10 +3620,10 @@
         <x:v>3.3000000000000078</x:v>
       </x:c>
       <x:c r="C29" s="45" t="s">
-        <x:v>16</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D29" s="56" t="s">
-        <x:v>67</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E29" s="57">
         <x:v>44886</x:v>
@@ -3795,7 +3680,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C30" s="27" t="s">
-        <x:v>20</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D30" s="28"/>
       <x:c r="E30" s="29"/>
@@ -3844,10 +3729,10 @@
         <x:v>4.0999999999999996</x:v>
       </x:c>
       <x:c r="C31" s="45" t="s">
-        <x:v>24</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D31" s="56" t="s">
-        <x:v>67</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E31" s="57">
         <x:v>44874</x:v>
@@ -3904,10 +3789,10 @@
         <x:v>4.2000000000000055</x:v>
       </x:c>
       <x:c r="C32" s="45" t="s">
-        <x:v>19</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D32" s="56" t="s">
-        <x:v>54</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E32" s="57">
         <x:v>44879</x:v>
@@ -3964,10 +3849,10 @@
         <x:v>4.3000000000000096</x:v>
       </x:c>
       <x:c r="C33" s="45" t="s">
-        <x:v>1</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D33" s="56" t="s">
-        <x:v>59</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E33" s="57">
         <x:v>44879</x:v>
@@ -4024,10 +3909,10 @@
         <x:v>4.4000000000000137</x:v>
       </x:c>
       <x:c r="C34" s="45" t="s">
-        <x:v>89</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D34" s="56" t="s">
-        <x:v>59</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E34" s="57">
         <x:v>44879</x:v>
@@ -4084,10 +3969,10 @@
         <x:v>4.5000000000000178</x:v>
       </x:c>
       <x:c r="C35" s="45" t="s">
-        <x:v>72</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D35" s="56" t="s">
-        <x:v>57</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E35" s="57">
         <x:v>44879</x:v>
@@ -4193,10 +4078,10 @@
         <x:v>5.0999999999999996</x:v>
       </x:c>
       <x:c r="C37" s="12" t="s">
-        <x:v>80</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D37" s="13" t="s">
-        <x:v>51</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E37" s="14">
         <x:v>44872</x:v>
@@ -4253,10 +4138,10 @@
         <x:v>5.2000000000000064</x:v>
       </x:c>
       <x:c r="C38" s="12" t="s">
-        <x:v>90</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D38" s="13" t="s">
-        <x:v>67</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E38" s="14">
         <x:v>44872</x:v>
@@ -4313,10 +4198,10 @@
         <x:v>5.3000000000000105</x:v>
       </x:c>
       <x:c r="C39" s="12" t="s">
-        <x:v>74</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D39" s="13" t="s">
-        <x:v>67</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E39" s="14">
         <x:v>44872</x:v>
@@ -4373,10 +4258,10 @@
         <x:v>5.4000000000000146</x:v>
       </x:c>
       <x:c r="C40" s="12" t="s">
-        <x:v>87</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D40" s="13" t="s">
-        <x:v>25</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E40" s="14">
         <x:v>44874</x:v>
@@ -4433,10 +4318,10 @@
         <x:v>5.500000000000024</x:v>
       </x:c>
       <x:c r="C41" s="63" t="s">
-        <x:v>86</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D41" s="13" t="s">
-        <x:v>51</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E41" s="14">
         <x:v>44880</x:v>
@@ -4493,10 +4378,10 @@
         <x:v>5.6000000000000316</x:v>
       </x:c>
       <x:c r="C42" s="12" t="s">
-        <x:v>3</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="D42" s="13" t="s">
-        <x:v>67</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E42" s="14">
         <x:v>44880</x:v>
@@ -4553,10 +4438,10 @@
         <x:v>5.7000000000000401</x:v>
       </x:c>
       <x:c r="C43" s="12" t="s">
-        <x:v>38</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D43" s="13" t="s">
-        <x:v>4</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E43" s="14">
         <x:v>44886</x:v>
@@ -4613,10 +4498,10 @@
         <x:v>5.8000000000000478</x:v>
       </x:c>
       <x:c r="C44" s="63" t="s">
-        <x:v>34</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D44" s="13" t="s">
-        <x:v>59</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E44" s="14">
         <x:v>44888</x:v>
@@ -4673,10 +4558,10 @@
         <x:v>5.9000000000000554</x:v>
       </x:c>
       <x:c r="C45" s="12" t="s">
-        <x:v>78</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D45" s="13" t="s">
-        <x:v>54</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E45" s="14">
         <x:v>44893</x:v>
@@ -4733,7 +4618,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C46" s="8" t="s">
-        <x:v>44</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D46" s="37"/>
       <x:c r="E46" s="38"/>
@@ -4808,10 +4693,10 @@
         <x:v>6.0999999999999996</x:v>
       </x:c>
       <x:c r="C47" s="12" t="s">
-        <x:v>21</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D47" s="13" t="s">
-        <x:v>67</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E47" s="14">
         <x:v>44886</x:v>
@@ -4868,10 +4753,10 @@
         <x:v>6.1999999999999993</x:v>
       </x:c>
       <x:c r="C48" s="12" t="s">
-        <x:v>33</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D48" s="13" t="s">
-        <x:v>67</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E48" s="14">
         <x:v>44886</x:v>
@@ -4928,10 +4813,10 @@
         <x:v>6.2999999999999989</x:v>
       </x:c>
       <x:c r="C49" s="12" t="s">
-        <x:v>2</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D49" s="13" t="s">
-        <x:v>67</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E49" s="14">
         <x:v>44886</x:v>
@@ -4988,7 +4873,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C50" s="8" t="s">
-        <x:v>79</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D50" s="37"/>
       <x:c r="E50" s="38"/>
@@ -5063,10 +4948,10 @@
         <x:v>7.0999999999999996</x:v>
       </x:c>
       <x:c r="C51" s="12" t="s">
-        <x:v>31</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D51" s="13" t="s">
-        <x:v>67</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E51" s="14">
         <x:v>44894</x:v>
@@ -5123,10 +5008,10 @@
         <x:v>7.2000000000000002</x:v>
       </x:c>
       <x:c r="C52" s="12" t="s">
-        <x:v>46</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D52" s="13" t="s">
-        <x:v>67</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E52" s="14">
         <x:v>44894</x:v>
@@ -5183,7 +5068,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C53" s="8" t="s">
-        <x:v>40</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D53" s="37"/>
       <x:c r="E53" s="38"/>
@@ -5258,10 +5143,10 @@
         <x:v>8.0999999999999996</x:v>
       </x:c>
       <x:c r="C54" s="34" t="s">
-        <x:v>41</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D54" s="40" t="s">
-        <x:v>67</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E54" s="14">
         <x:v>44896</x:v>
@@ -5344,10 +5229,10 @@
         <x:v>8.1999999999999886</x:v>
       </x:c>
       <x:c r="C55" s="34" t="s">
-        <x:v>42</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D55" s="40" t="s">
-        <x:v>67</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E55" s="14">
         <x:v>44896</x:v>
@@ -5430,10 +5315,10 @@
         <x:v>8.2999999999999812</x:v>
       </x:c>
       <x:c r="C56" s="34" t="s">
-        <x:v>82</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="D56" s="40" t="s">
-        <x:v>67</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E56" s="14">
         <x:v>44896</x:v>
@@ -5516,7 +5401,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C57" s="8" t="s">
-        <x:v>45</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="D57" s="37"/>
       <x:c r="E57" s="41"/>
@@ -5591,10 +5476,10 @@
         <x:v>9.0999999999999996</x:v>
       </x:c>
       <x:c r="C58" s="34" t="s">
-        <x:v>18</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D58" s="40" t="s">
-        <x:v>67</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E58" s="14">
         <x:v>44900</x:v>
@@ -5677,10 +5562,10 @@
         <x:v>9.1999999999999886</x:v>
       </x:c>
       <x:c r="C59" s="34" t="s">
-        <x:v>17</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D59" s="40" t="s">
-        <x:v>67</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E59" s="14">
         <x:v>44900</x:v>
@@ -5763,10 +5648,10 @@
         <x:v>9.3000000000000007</x:v>
       </x:c>
       <x:c r="C60" s="34" t="s">
-        <x:v>27</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D60" s="40" t="s">
-        <x:v>67</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E60" s="14">
         <x:v>44900</x:v>
@@ -5849,10 +5734,10 @@
         <x:v>9.4000000000000004</x:v>
       </x:c>
       <x:c r="C61" s="34" t="s">
-        <x:v>43</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D61" s="40" t="s">
-        <x:v>67</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E61" s="14">
         <x:v>44900</x:v>
@@ -13099,7 +12984,7 @@
   <x:hyperlinks>
     <x:hyperlink ref="AD1:AD1" r:id="rId1"/>
   </x:hyperlinks>
-  <x:pageMargins left="0.74777776002883911133" right="0.74777776002883911133" top="0.98402780294418334961" bottom="0.98402780294418334961" header="0.51166665554046630859" footer="0.51166665554046630859"/>
+  <x:pageMargins left="0.74763888120651245117" right="0.74763888120651245117" top="0.98402780294418334961" bottom="0.98402780294418334961" header="0.51152777671813964844" footer="0.51152777671813964844"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </x:worksheet>
 </file>